--- a/financialManagement/20230517/result.xlsx
+++ b/financialManagement/20230517/result.xlsx
@@ -464,119 +464,161 @@
       <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>30000000</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>30000000</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>30000000</v>
-      </c>
-      <c r="E2" t="n">
-        <v>30000000</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30000000</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>30000000</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>6500000</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>6500000</t>
+        </is>
       </c>
       <c r="C3" t="n">
         <v>0.9258999999999999</v>
       </c>
-      <c r="D3" t="n">
-        <v>6018519</v>
-      </c>
-      <c r="E3" t="n">
-        <v>23981481</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6018519</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>23981481</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>6500000</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>6500000</t>
+        </is>
       </c>
       <c r="C4" t="n">
         <v>0.8573</v>
       </c>
-      <c r="D4" t="n">
-        <v>5572702</v>
-      </c>
-      <c r="E4" t="n">
-        <v>18408779</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5572702</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>18408779</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>6500000</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>6500000</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>0.7938</v>
       </c>
-      <c r="D5" t="n">
-        <v>5159910</v>
-      </c>
-      <c r="E5" t="n">
-        <v>13248869</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5159910</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>13248869</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>6500000</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>6500000</t>
+        </is>
       </c>
       <c r="C6" t="n">
         <v>0.735</v>
       </c>
-      <c r="D6" t="n">
-        <v>4777694</v>
-      </c>
-      <c r="E6" t="n">
-        <v>8471175</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4777694</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>8471175</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>6500000</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>6500000</t>
+        </is>
       </c>
       <c r="C7" t="n">
         <v>0.6806</v>
       </c>
-      <c r="D7" t="n">
-        <v>4423791</v>
-      </c>
-      <c r="E7" t="n">
-        <v>4047384</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4423791</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>4047384</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>6500000</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6500000</t>
+        </is>
       </c>
       <c r="C8" t="n">
         <v>0.6302</v>
       </c>
-      <c r="D8" t="n">
-        <v>4096103</v>
-      </c>
-      <c r="E8" t="n">
-        <v>48719</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4096103</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>48719</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -592,8 +634,10 @@
           <t>折現回收期間</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>5.988106011982609</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>5.988106011982608835764139720</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
